--- a/data/zenodo_ivan/extraction/CHE_ext_waste.xlsx
+++ b/data/zenodo_ivan/extraction/CHE_ext_waste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0555D9-AD4E-5043-AB8D-079B21C015B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF280560-DC91-4B4C-9B9D-8BCD12C74FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>proven_reserves</t>
   </si>
   <si>
-    <t>cost_variable</t>
-  </si>
-  <si>
     <t>CHE_ext_waste.xlsx</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>cost_variable_om</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -650,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -665,16 +665,16 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>17</v>
@@ -698,16 +698,16 @@
         <v>17.192</v>
       </c>
       <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
         <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -715,7 +715,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -733,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -750,10 +750,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -767,10 +767,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -784,10 +784,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -801,10 +801,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -818,10 +818,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -835,10 +835,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -852,10 +852,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -869,10 +869,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -886,10 +886,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -903,10 +903,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -920,10 +920,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -937,10 +937,10 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -954,10 +954,10 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -971,10 +971,10 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -988,10 +988,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -1005,10 +1005,10 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
@@ -1022,10 +1022,10 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -1039,10 +1039,10 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -1056,10 +1056,10 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -1073,10 +1073,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -1088,16 +1088,16 @@
         <v>0.17302990651542799</v>
       </c>
       <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" t="s">
         <v>29</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" t="s">
         <v>31</v>
-      </c>
-      <c r="L30" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1105,10 +1105,10 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -1122,10 +1122,10 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -1139,10 +1139,10 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -1156,10 +1156,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -1173,10 +1173,10 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -1190,10 +1190,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -1207,10 +1207,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -1224,10 +1224,10 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -1241,10 +1241,10 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>

--- a/data/zenodo_ivan/extraction/CHE_ext_waste.xlsx
+++ b/data/zenodo_ivan/extraction/CHE_ext_waste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF280560-DC91-4B4C-9B9D-8BCD12C74FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975FDC99-B635-3B47-BDCD-3324CDAA737A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$572</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$573</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="39">
   <si>
     <t>Name:</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>cost_variable_om</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -565,11 +571,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10:C39"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -668,10 +674,10 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -688,27 +694,19 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
       </c>
       <c r="G8">
-        <v>17.192</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -718,14 +716,25 @@
         <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="G9">
+        <v>17.192</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -735,14 +744,15 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1990</v>
+        <v>21</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -759,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -776,7 +786,7 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -793,7 +803,7 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -810,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -827,7 +837,7 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -844,7 +854,7 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -861,7 +871,7 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -878,7 +888,7 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -895,7 +905,7 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -912,7 +922,7 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -929,7 +939,7 @@
         <v>22</v>
       </c>
       <c r="E21">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -946,7 +956,7 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -963,7 +973,7 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -980,7 +990,7 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -997,7 +1007,7 @@
         <v>22</v>
       </c>
       <c r="E25">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1014,7 +1024,7 @@
         <v>22</v>
       </c>
       <c r="E26">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1031,7 +1041,7 @@
         <v>22</v>
       </c>
       <c r="E27">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1048,7 +1058,7 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1065,7 +1075,7 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1082,22 +1092,7 @@
         <v>22</v>
       </c>
       <c r="E30">
-        <v>2010</v>
-      </c>
-      <c r="G30">
-        <v>0.17302990651542799</v>
-      </c>
-      <c r="H30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" t="s">
-        <v>31</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1114,7 +1109,22 @@
         <v>22</v>
       </c>
       <c r="E31">
-        <v>2011</v>
+        <v>2010</v>
+      </c>
+      <c r="G31">
+        <v>0.17302990651542799</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1131,7 +1141,7 @@
         <v>22</v>
       </c>
       <c r="E32">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1148,7 +1158,7 @@
         <v>22</v>
       </c>
       <c r="E33">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1165,7 +1175,7 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1182,7 +1192,7 @@
         <v>22</v>
       </c>
       <c r="E35">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1199,7 +1209,7 @@
         <v>22</v>
       </c>
       <c r="E36">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1216,7 +1226,7 @@
         <v>22</v>
       </c>
       <c r="E37">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1233,7 +1243,7 @@
         <v>22</v>
       </c>
       <c r="E38">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1250,14 +1260,31 @@
         <v>22</v>
       </c>
       <c r="E39">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40">
         <v>2019</v>
       </c>
     </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K152" s="2"/>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K153" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L572" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L573" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
